--- a/Project_Maker/Assets/Sheet/Data.xlsx
+++ b/Project_Maker/Assets/Sheet/Data.xlsx
@@ -320,7 +320,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -342,7 +342,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Project_Maker/Assets/Sheet/Data.xlsx
+++ b/Project_Maker/Assets/Sheet/Data.xlsx
@@ -1,25 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tt6tt\Desktop\중재오빠\Project\JellyMan\Project_Maker\Assets\Sheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bbno\project_Maker\Project_Maker\Assets\Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CCB19E-5F40-4123-B1F2-60A89DD6EDB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10755" windowHeight="8040"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Envi" sheetId="2" r:id="rId1"/>
+    <sheet name="Exp" sheetId="3" r:id="rId2"/>
+    <sheet name="Upgrade" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>LongValue_L</t>
   </si>
@@ -43,11 +46,91 @@
     <t>PlayerSpeed</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>XP_I</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID_I</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ame_S</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ulti</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect_L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pgrade_L</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -96,12 +179,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -316,11 +409,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -330,7 +423,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -338,10 +431,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>3</v>
       </c>
     </row>
@@ -350,4 +443,209 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD231F2-5D02-4EC3-8C59-B7D5BD61F6CD}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <f>B2 + 100 *A3</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <f t="shared" ref="B4:B12" si="0">B3 + 100 *A4</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
+        <f t="shared" si="0"/>
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4">
+        <f t="shared" si="0"/>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4">
+        <f t="shared" si="0"/>
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4">
+        <f t="shared" si="0"/>
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4">
+        <f t="shared" si="0"/>
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4">
+        <f t="shared" si="0"/>
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4">
+        <f t="shared" si="0"/>
+        <v>5600</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33FF32D-6572-4A35-9489-3F08760DC6E4}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="20.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="5" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>101</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D2" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>102</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D3" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>103</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Project_Maker/Assets/Sheet/Data.xlsx
+++ b/Project_Maker/Assets/Sheet/Data.xlsx
@@ -1,28 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bbno\project_Maker\Project_Maker\Assets\Sheet\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CCB19E-5F40-4123-B1F2-60A89DD6EDB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Envi" sheetId="2" r:id="rId1"/>
-    <sheet name="Exp" sheetId="3" r:id="rId2"/>
-    <sheet name="Upgrade" sheetId="4" r:id="rId3"/>
+    <sheet name="EnviSheet" sheetId="2" r:id="rId1"/>
+    <sheet name="ExpSheet" sheetId="3" r:id="rId2"/>
+    <sheet name="UpgradeSheet" sheetId="4" r:id="rId3"/>
+    <sheet name="MonsterSheet" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>LongValue_L</t>
   </si>
@@ -126,11 +121,75 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D_I</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>refab_S</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reward_I</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP_I</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>peed_L</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RewardExp_I</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack_L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -409,7 +468,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -446,10 +505,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD231F2-5D02-4EC3-8C59-B7D5BD61F6CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -572,7 +631,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33FF32D-6572-4A35-9489-3F08760DC6E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -648,4 +707,73 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="4"/>
+    <col min="3" max="3" width="13.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21" style="4" customWidth="1"/>
+    <col min="6" max="6" width="19" style="4" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>101</v>
+      </c>
+      <c r="B2" s="4">
+        <v>100</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E2" s="4">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>